--- a/result_table_templates/MovingBarCC.xlsx
+++ b/result_table_templates/MovingBarCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9E9FAE-C80F-2541-919E-39C608EF7565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BF2C39-0F17-544F-BB0B-17AAECB4BEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="17780" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>Field</t>
   </si>
@@ -67,9 +67,6 @@
     <t>dsi_trailing_peak</t>
   </si>
   <si>
-    <t>entry_time</t>
-  </si>
-  <si>
     <t>example_traces_by_angle</t>
   </si>
   <si>
@@ -130,12 +127,6 @@
     <t>double</t>
   </si>
   <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -181,9 +172,6 @@
     <t>peak-based vector sum dsi for the trailing period</t>
   </si>
   <si>
-    <t>time the result was entered</t>
-  </si>
-  <si>
     <t>example trace for each bar angle</t>
   </si>
   <si>
@@ -227,6 +215,15 @@
   </si>
   <si>
     <t>time after stimulus offset (ms)</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>uint16</t>
+  </si>
+  <si>
+    <t>uint32</t>
   </si>
 </sst>
 </file>
@@ -575,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -593,10 +590,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -604,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -615,10 +612,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -626,10 +623,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -637,10 +634,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -648,10 +645,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -659,10 +656,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -670,10 +667,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -681,10 +678,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -692,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -703,10 +700,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -714,10 +711,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -725,10 +722,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -736,10 +733,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -747,10 +744,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -758,10 +755,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -769,10 +766,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -780,10 +777,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -791,10 +788,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -802,10 +799,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -813,10 +810,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -824,10 +821,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -835,10 +832,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -846,10 +843,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -857,10 +854,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -868,10 +865,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -879,10 +876,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -890,10 +887,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -901,10 +898,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -912,21 +909,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
